--- a/Code/Results/Cases/Case_8_44/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_44/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.7622334721344</v>
+        <v>12.78670761166659</v>
       </c>
       <c r="C2">
-        <v>8.181847555975107</v>
+        <v>8.434268747224841</v>
       </c>
       <c r="D2">
-        <v>5.650454981658426</v>
+        <v>5.557637016830879</v>
       </c>
       <c r="E2">
-        <v>7.946680152453514</v>
+        <v>8.082150353593121</v>
       </c>
       <c r="F2">
-        <v>20.78764139153629</v>
+        <v>19.46588377476759</v>
       </c>
       <c r="G2">
-        <v>2.116177637005869</v>
+        <v>5.881757946091614</v>
       </c>
       <c r="H2">
-        <v>3.051235360315427</v>
+        <v>2.751121315909341</v>
       </c>
       <c r="I2">
-        <v>3.70547294369438</v>
+        <v>3.359512813848531</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.31859999556936</v>
+        <v>16.13443192832137</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.00134721826479</v>
       </c>
       <c r="M2">
-        <v>11.13862242220006</v>
+        <v>10.85427119669145</v>
       </c>
       <c r="N2">
-        <v>6.395103724469016</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.503875483473546</v>
+        <v>11.42196297923346</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>6.610120967989173</v>
       </c>
       <c r="Q2">
-        <v>17.438589015113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.462364527484208</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>16.24405443230866</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.94120970225268</v>
+        <v>11.99795619107576</v>
       </c>
       <c r="C3">
-        <v>7.959951764557961</v>
+        <v>8.17005014381337</v>
       </c>
       <c r="D3">
-        <v>5.488101660142146</v>
+        <v>5.3585268719559</v>
       </c>
       <c r="E3">
-        <v>7.800767565306129</v>
+        <v>7.978826164005402</v>
       </c>
       <c r="F3">
-        <v>20.52635443256042</v>
+        <v>19.22318846244202</v>
       </c>
       <c r="G3">
-        <v>2.119733390694196</v>
+        <v>6.347926609728607</v>
       </c>
       <c r="H3">
-        <v>3.23302344983487</v>
+        <v>2.910779517027024</v>
       </c>
       <c r="I3">
-        <v>3.855990644229795</v>
+        <v>3.483786838097847</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>17.36077963886517</v>
+        <v>16.19728356560207</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>13.12938444513979</v>
       </c>
       <c r="M3">
-        <v>10.56087119943731</v>
+        <v>10.85362963760624</v>
       </c>
       <c r="N3">
-        <v>6.226668658420054</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.113635519385378</v>
+        <v>10.84647939415306</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>6.450666935296945</v>
       </c>
       <c r="Q3">
-        <v>17.4093818571933</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.069243127001522</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>16.22233536698894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.4059084416751</v>
+        <v>11.4842047370352</v>
       </c>
       <c r="C4">
-        <v>7.820719193591898</v>
+        <v>8.005224611121992</v>
       </c>
       <c r="D4">
-        <v>5.385478823671329</v>
+        <v>5.232324301871835</v>
       </c>
       <c r="E4">
-        <v>7.708111137509128</v>
+        <v>7.91323484347629</v>
       </c>
       <c r="F4">
-        <v>20.3717348402968</v>
+        <v>19.07699990047801</v>
       </c>
       <c r="G4">
-        <v>2.121993236643521</v>
+        <v>6.644332085094293</v>
       </c>
       <c r="H4">
-        <v>3.34878543930431</v>
+        <v>3.012515601121624</v>
       </c>
       <c r="I4">
-        <v>3.952520698743748</v>
+        <v>3.563877840584682</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>17.38972903884135</v>
+        <v>16.23726329381725</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>13.20858997047919</v>
       </c>
       <c r="M4">
-        <v>10.18918857384846</v>
+        <v>10.86834146465926</v>
       </c>
       <c r="N4">
-        <v>6.120995082635488</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>8.865711150237093</v>
+        <v>10.47700308955035</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.351096295112354</v>
       </c>
       <c r="Q4">
-        <v>17.39653571118494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>8.819078891053286</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>16.21180381363807</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.17767981317697</v>
+        <v>11.2653174059635</v>
       </c>
       <c r="C5">
-        <v>7.76703079721279</v>
+        <v>7.94179403203779</v>
       </c>
       <c r="D5">
-        <v>5.344376985813138</v>
+        <v>5.181466344496958</v>
       </c>
       <c r="E5">
-        <v>7.667667161846711</v>
+        <v>7.884248759572678</v>
       </c>
       <c r="F5">
-        <v>20.30142368125072</v>
+        <v>19.00946635605788</v>
       </c>
       <c r="G5">
-        <v>2.122939916013998</v>
+        <v>6.76854977900746</v>
       </c>
       <c r="H5">
-        <v>3.397329688186669</v>
+        <v>3.055204145276984</v>
       </c>
       <c r="I5">
-        <v>3.995373887855357</v>
+        <v>3.600430973556473</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.39590739082577</v>
+        <v>16.24784223505134</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>13.23530915239477</v>
       </c>
       <c r="M5">
-        <v>10.03511587434773</v>
+        <v>10.87471669172573</v>
       </c>
       <c r="N5">
-        <v>6.07786187977579</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>8.76245038892182</v>
+        <v>10.32399603871618</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.310572180167856</v>
       </c>
       <c r="Q5">
-        <v>17.38618742193912</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>8.714792407515247</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>16.20194777995007</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.13657360878254</v>
+        <v>11.22590979445767</v>
       </c>
       <c r="C6">
-        <v>7.762739549215709</v>
+        <v>7.936568474531397</v>
       </c>
       <c r="D6">
-        <v>5.33926405365873</v>
+        <v>5.174832396096225</v>
       </c>
       <c r="E6">
-        <v>7.658549546908631</v>
+        <v>7.877298027129689</v>
       </c>
       <c r="F6">
-        <v>20.27908531835137</v>
+        <v>18.9876635766405</v>
       </c>
       <c r="G6">
-        <v>2.123105905648011</v>
+        <v>6.790355835249342</v>
       </c>
       <c r="H6">
-        <v>3.405839153478259</v>
+        <v>3.062701247566361</v>
       </c>
       <c r="I6">
-        <v>4.005715736931436</v>
+        <v>3.610361527277182</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>17.38919683103702</v>
+        <v>16.24222923236767</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>13.23279292391118</v>
       </c>
       <c r="M6">
-        <v>10.01120129490292</v>
+        <v>10.87183035568361</v>
       </c>
       <c r="N6">
-        <v>6.071231423517814</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>8.74487754959358</v>
+        <v>10.30019642563633</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.304350899310138</v>
       </c>
       <c r="Q6">
-        <v>17.37676457017697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>8.697049475303931</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>16.19271630889971</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.39556966048011</v>
+        <v>11.47712310321185</v>
       </c>
       <c r="C7">
-        <v>7.832680452543669</v>
+        <v>8.009274840585084</v>
       </c>
       <c r="D7">
-        <v>5.389701582228059</v>
+        <v>5.245992202620634</v>
       </c>
       <c r="E7">
-        <v>7.701195073633079</v>
+        <v>7.907963042879432</v>
       </c>
       <c r="F7">
-        <v>20.34156531918975</v>
+        <v>18.99590982990624</v>
       </c>
       <c r="G7">
-        <v>2.122026330858248</v>
+        <v>6.697463974765036</v>
       </c>
       <c r="H7">
-        <v>3.350466247199787</v>
+        <v>3.015202022844959</v>
       </c>
       <c r="I7">
-        <v>3.961458825993083</v>
+        <v>3.575649270570318</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>17.36859845307744</v>
+        <v>16.1919642869503</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>13.16726171778275</v>
       </c>
       <c r="M7">
-        <v>10.19228990186681</v>
+        <v>10.84147138697099</v>
       </c>
       <c r="N7">
-        <v>6.121947013041517</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>8.863485048099285</v>
+        <v>10.47600726467963</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.350427014653953</v>
       </c>
       <c r="Q7">
-        <v>17.37520441626351</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>8.817415158491709</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>16.15416302204154</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.47669462980437</v>
+        <v>12.52106239383909</v>
       </c>
       <c r="C8">
-        <v>8.122501378189305</v>
+        <v>8.331553300072503</v>
       </c>
       <c r="D8">
-        <v>5.601330444396543</v>
+        <v>5.526792410353192</v>
       </c>
       <c r="E8">
-        <v>7.888864904142847</v>
+        <v>8.042644215992199</v>
       </c>
       <c r="F8">
-        <v>20.65848494035288</v>
+        <v>19.17831388467274</v>
       </c>
       <c r="G8">
-        <v>2.117413339423006</v>
+        <v>6.29028381973958</v>
       </c>
       <c r="H8">
-        <v>3.114340443877976</v>
+        <v>2.810208701852849</v>
       </c>
       <c r="I8">
-        <v>3.767129199545594</v>
+        <v>3.418172608563648</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.30465882080765</v>
+        <v>16.04752998590425</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.95293180285267</v>
       </c>
       <c r="M8">
-        <v>10.94946199139796</v>
+        <v>10.77865971160323</v>
       </c>
       <c r="N8">
-        <v>6.339518066307035</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.370032887818411</v>
+        <v>11.22107045916577</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>6.552455988964383</v>
       </c>
       <c r="Q8">
-        <v>17.39971364548376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.329342076755976</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>16.0893227372866</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.36164142913469</v>
+        <v>14.33498924976771</v>
       </c>
       <c r="C9">
-        <v>8.644680663521047</v>
+        <v>8.950702437067569</v>
       </c>
       <c r="D9">
-        <v>5.983650242801231</v>
+        <v>6.00114999356651</v>
       </c>
       <c r="E9">
-        <v>8.242915593387655</v>
+        <v>8.295997555196081</v>
       </c>
       <c r="F9">
-        <v>21.37553705701847</v>
+        <v>19.79537040369954</v>
       </c>
       <c r="G9">
-        <v>2.108928596876169</v>
+        <v>5.264522090749432</v>
       </c>
       <c r="H9">
-        <v>2.681885606416091</v>
+        <v>2.431414881040346</v>
       </c>
       <c r="I9">
-        <v>3.404569175912794</v>
+        <v>3.118289513176012</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.24182600335372</v>
+        <v>15.90232931176504</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.65074780279153</v>
       </c>
       <c r="M9">
-        <v>12.28844715699804</v>
+        <v>10.85387140114904</v>
       </c>
       <c r="N9">
-        <v>6.744085181912991</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.29451717544207</v>
+        <v>12.55639064737213</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>6.937007610540697</v>
       </c>
       <c r="Q9">
-        <v>17.52684407645576</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.25858731198665</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>16.1550277864876</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.587033065041</v>
+        <v>15.53107872372875</v>
       </c>
       <c r="C10">
-        <v>9.059668327651176</v>
+        <v>9.386932245409049</v>
       </c>
       <c r="D10">
-        <v>6.273170553608747</v>
+        <v>6.402225800871109</v>
       </c>
       <c r="E10">
-        <v>8.377175924788473</v>
+        <v>8.37742223401521</v>
       </c>
       <c r="F10">
-        <v>21.78374341649035</v>
+        <v>19.86219650456133</v>
       </c>
       <c r="G10">
-        <v>2.103142056454089</v>
+        <v>5.661010137461688</v>
       </c>
       <c r="H10">
-        <v>2.411388892605498</v>
+        <v>2.203950744658187</v>
       </c>
       <c r="I10">
-        <v>3.167309460562358</v>
+        <v>2.931643676679727</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.10917474781407</v>
+        <v>15.58258032085809</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.27497163555754</v>
       </c>
       <c r="M10">
-        <v>13.20864998924246</v>
+        <v>10.80057798474088</v>
       </c>
       <c r="N10">
-        <v>6.927100033969611</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>10.84990253898353</v>
+        <v>13.45610304673764</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.100116897559067</v>
       </c>
       <c r="Q10">
-        <v>17.53913990532336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>10.81768040967457</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>15.92474781766641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.04149197868387</v>
+        <v>16.02343215120484</v>
       </c>
       <c r="C11">
-        <v>9.65097647594513</v>
+        <v>9.887209870719776</v>
       </c>
       <c r="D11">
-        <v>6.609660801648867</v>
+        <v>6.875091010127762</v>
       </c>
       <c r="E11">
-        <v>7.667242463851897</v>
+        <v>7.729532131231577</v>
       </c>
       <c r="F11">
-        <v>20.80665995323051</v>
+        <v>18.41388699222454</v>
       </c>
       <c r="G11">
-        <v>2.101352086562582</v>
+        <v>8.849327276183745</v>
       </c>
       <c r="H11">
-        <v>3.2285552393847</v>
+        <v>3.090526143800165</v>
       </c>
       <c r="I11">
-        <v>3.118629648463712</v>
+        <v>2.909669274817491</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.24104511445758</v>
+        <v>14.59207857455537</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.53794826679754</v>
       </c>
       <c r="M11">
-        <v>13.79554128020753</v>
+        <v>10.06600666815009</v>
       </c>
       <c r="N11">
-        <v>6.18268285379231</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.43925018627728</v>
+        <v>13.9858258611861</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.332998739446218</v>
       </c>
       <c r="Q11">
-        <v>16.67601925695172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.41318132023123</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>14.75732126225809</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.18595027714528</v>
+        <v>16.19796990989913</v>
       </c>
       <c r="C12">
-        <v>10.09050003841732</v>
+        <v>10.25190213179524</v>
       </c>
       <c r="D12">
-        <v>6.83759993618599</v>
+        <v>7.164619046279095</v>
       </c>
       <c r="E12">
-        <v>7.308326027006371</v>
+        <v>7.412166752965871</v>
       </c>
       <c r="F12">
-        <v>19.92479190370801</v>
+        <v>17.38282545866835</v>
       </c>
       <c r="G12">
-        <v>2.100928415559699</v>
+        <v>10.57674233660963</v>
       </c>
       <c r="H12">
-        <v>4.480750238804789</v>
+        <v>4.383773112331085</v>
       </c>
       <c r="I12">
-        <v>3.106890731760986</v>
+        <v>2.903688617389089</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.59588221569194</v>
+        <v>13.99236276220937</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.13349779669329</v>
       </c>
       <c r="M12">
-        <v>14.10142846902519</v>
+        <v>9.572169868119104</v>
       </c>
       <c r="N12">
-        <v>5.588524636789958</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>9.972615944963204</v>
+        <v>14.25770196372594</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5.729697412359775</v>
       </c>
       <c r="Q12">
-        <v>15.97951523063688</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>9.949724539298343</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.99979692379894</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.09706808898993</v>
+        <v>16.12968671504542</v>
       </c>
       <c r="C13">
-        <v>10.45738801752389</v>
+        <v>10.58600263134439</v>
       </c>
       <c r="D13">
-        <v>7.004464869230779</v>
+        <v>7.31047574562333</v>
       </c>
       <c r="E13">
-        <v>7.21836138589082</v>
+        <v>7.354974371664283</v>
       </c>
       <c r="F13">
-        <v>19.01097634940916</v>
+        <v>16.66188726109978</v>
       </c>
       <c r="G13">
-        <v>2.101562761445945</v>
+        <v>10.21193104433533</v>
       </c>
       <c r="H13">
-        <v>5.834852203629922</v>
+        <v>5.756387874742418</v>
       </c>
       <c r="I13">
-        <v>3.136992246854355</v>
+        <v>2.926058395444036</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>15.05751376342639</v>
+        <v>13.64328938186484</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>10.91743967894638</v>
       </c>
       <c r="M13">
-        <v>14.22397678931332</v>
+        <v>9.24905834083089</v>
       </c>
       <c r="N13">
-        <v>5.097469752086945</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.42356128977648</v>
+        <v>14.36745938915461</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.240998934121006</v>
       </c>
       <c r="Q13">
-        <v>15.33842748399757</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.400493280599571</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.53396748726026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.92650453168975</v>
+        <v>15.96970964490232</v>
       </c>
       <c r="C14">
-        <v>10.69153305876016</v>
+        <v>10.81749100081061</v>
       </c>
       <c r="D14">
-        <v>7.096834388217585</v>
+        <v>7.349658727219137</v>
       </c>
       <c r="E14">
-        <v>7.320746347137451</v>
+        <v>7.477978646857311</v>
       </c>
       <c r="F14">
-        <v>18.34931956476761</v>
+        <v>16.27710820598032</v>
       </c>
       <c r="G14">
-        <v>2.102485726797168</v>
+        <v>9.050212155160834</v>
       </c>
       <c r="H14">
-        <v>6.812218671414655</v>
+        <v>6.740460864825544</v>
       </c>
       <c r="I14">
-        <v>3.179571683970331</v>
+        <v>2.958038919950996</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.73559140522839</v>
+        <v>13.49549262144735</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.83127681642294</v>
       </c>
       <c r="M14">
-        <v>14.22986476582249</v>
+        <v>9.09471581246623</v>
       </c>
       <c r="N14">
-        <v>4.833013551556026</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.997148332533705</v>
+        <v>14.37329787173672</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>4.982061962704909</v>
       </c>
       <c r="Q14">
-        <v>14.91588308186294</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.972235354592959</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>13.32147715394879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.83194226172656</v>
+        <v>15.87624344894057</v>
       </c>
       <c r="C15">
-        <v>10.7351325875659</v>
+        <v>10.87132312817289</v>
       </c>
       <c r="D15">
-        <v>7.107206536461062</v>
+        <v>7.330772098343872</v>
       </c>
       <c r="E15">
-        <v>7.363628539732833</v>
+        <v>7.528791316119865</v>
       </c>
       <c r="F15">
-        <v>18.17361443958579</v>
+        <v>16.22836880032314</v>
       </c>
       <c r="G15">
-        <v>2.102956366693</v>
+        <v>8.399596970751574</v>
       </c>
       <c r="H15">
-        <v>7.042030295435306</v>
+        <v>6.970371423210851</v>
       </c>
       <c r="I15">
-        <v>3.203559363976249</v>
+        <v>2.977483661634943</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.67195081674466</v>
+        <v>13.49147190287138</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.83070635840915</v>
       </c>
       <c r="M15">
-        <v>14.19329531501552</v>
+        <v>9.080999179804833</v>
       </c>
       <c r="N15">
-        <v>4.781113198928329</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.87523442995481</v>
+        <v>14.34075473237507</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>4.933155576965046</v>
       </c>
       <c r="Q15">
-        <v>14.81895160103997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.849144540061598</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>13.31167459363491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.34051306036029</v>
+        <v>15.37331889848944</v>
       </c>
       <c r="C16">
-        <v>10.50593922284391</v>
+        <v>10.73556971418395</v>
       </c>
       <c r="D16">
-        <v>6.960124230454564</v>
+        <v>7.049407233016137</v>
       </c>
       <c r="E16">
-        <v>7.309065859937642</v>
+        <v>7.50882640923469</v>
       </c>
       <c r="F16">
-        <v>18.14543585316698</v>
+        <v>16.68947656070418</v>
       </c>
       <c r="G16">
-        <v>2.105311352886556</v>
+        <v>5.728804062242723</v>
       </c>
       <c r="H16">
-        <v>6.859595965010977</v>
+        <v>6.773980814652091</v>
       </c>
       <c r="I16">
-        <v>3.304371308071131</v>
+        <v>3.052631185447247</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.83322916522855</v>
+        <v>13.8045405486055</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.04228476330915</v>
       </c>
       <c r="M16">
-        <v>13.80200242883397</v>
+        <v>9.308508202841235</v>
       </c>
       <c r="N16">
-        <v>4.790161842218669</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.726056630048856</v>
+        <v>13.98532546663106</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>4.959123441261442</v>
       </c>
       <c r="Q16">
-        <v>14.93209843735243</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.693915816864788</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>13.72694958814326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.04988506997552</v>
+        <v>15.07171792829634</v>
       </c>
       <c r="C17">
-        <v>10.19683181437153</v>
+        <v>10.48197445961185</v>
       </c>
       <c r="D17">
-        <v>6.794813935948103</v>
+        <v>6.827712319710442</v>
       </c>
       <c r="E17">
-        <v>7.185193985282394</v>
+        <v>7.394417959370982</v>
       </c>
       <c r="F17">
-        <v>18.47958667878273</v>
+        <v>17.19406311229053</v>
       </c>
       <c r="G17">
-        <v>2.106634669241012</v>
+        <v>5.027323464389052</v>
       </c>
       <c r="H17">
-        <v>6.172977942258973</v>
+        <v>6.070259441526241</v>
       </c>
       <c r="I17">
-        <v>3.359873460012254</v>
+        <v>3.094972437267231</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.12051114775696</v>
+        <v>14.11993186063458</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.26675159310888</v>
       </c>
       <c r="M17">
-        <v>13.49232053948698</v>
+        <v>9.546707770133803</v>
       </c>
       <c r="N17">
-        <v>4.923145311179942</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.844618184774465</v>
+        <v>13.69934967791448</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.102543082292361</v>
       </c>
       <c r="Q17">
-        <v>15.23991465277051</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.809682112008989</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>14.13204973772291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.91211394569621</v>
+        <v>14.91670913268172</v>
       </c>
       <c r="C18">
-        <v>9.786844076573159</v>
+        <v>10.11554629932318</v>
       </c>
       <c r="D18">
-        <v>6.59559259808826</v>
+        <v>6.610112111038631</v>
       </c>
       <c r="E18">
-        <v>7.140624071280999</v>
+        <v>7.329343165326351</v>
       </c>
       <c r="F18">
-        <v>19.18340137837372</v>
+        <v>17.9112959263712</v>
       </c>
       <c r="G18">
-        <v>2.107150188580707</v>
+        <v>4.859149780955288</v>
       </c>
       <c r="H18">
-        <v>5.017694947366758</v>
+        <v>4.887974402296771</v>
       </c>
       <c r="I18">
-        <v>3.370871109750737</v>
+        <v>3.099255466905899</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.5847102760851</v>
+        <v>14.53901330869893</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.57282073965074</v>
       </c>
       <c r="M18">
-        <v>13.2201616597612</v>
+        <v>9.872342245915517</v>
       </c>
       <c r="N18">
-        <v>5.254359439100881</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.209453767542838</v>
+        <v>13.4487537792585</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.440125161000251</v>
       </c>
       <c r="Q18">
-        <v>15.77317478354075</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.173489446561845</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>14.65957106532201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.89977870425945</v>
+        <v>14.88180126846886</v>
       </c>
       <c r="C19">
-        <v>9.388817318379635</v>
+        <v>9.748459798573663</v>
       </c>
       <c r="D19">
-        <v>6.401273964784984</v>
+        <v>6.418498347863159</v>
       </c>
       <c r="E19">
-        <v>7.387624309077694</v>
+        <v>7.521168001020118</v>
       </c>
       <c r="F19">
-        <v>20.08622821163312</v>
+        <v>18.73974153716768</v>
       </c>
       <c r="G19">
-        <v>2.106941336679053</v>
+        <v>4.786758277802855</v>
       </c>
       <c r="H19">
-        <v>3.710393656215789</v>
+        <v>3.538001195850791</v>
       </c>
       <c r="I19">
-        <v>3.359866513193212</v>
+        <v>3.091289525345287</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.16202063041254</v>
+        <v>15.02472089616393</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.92996957062859</v>
       </c>
       <c r="M19">
-        <v>13.01295125465488</v>
+        <v>10.25589017809328</v>
       </c>
       <c r="N19">
-        <v>5.811707072866341</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.741106851601307</v>
+        <v>13.2613379559083</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>5.999817517509587</v>
       </c>
       <c r="Q19">
-        <v>16.43098753403386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.705097132942187</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>15.25232771062501</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.25725016880672</v>
+        <v>15.20154082810081</v>
       </c>
       <c r="C20">
-        <v>8.991609860429376</v>
+        <v>9.351248219010163</v>
       </c>
       <c r="D20">
-        <v>6.213402396428325</v>
+        <v>6.283100656241312</v>
       </c>
       <c r="E20">
-        <v>8.320448701562691</v>
+        <v>8.333125301478333</v>
       </c>
       <c r="F20">
-        <v>21.58502156716112</v>
+        <v>19.92441125274883</v>
       </c>
       <c r="G20">
-        <v>2.104695845136945</v>
+        <v>4.867691038878166</v>
       </c>
       <c r="H20">
-        <v>2.483594828433127</v>
+        <v>2.261297336431269</v>
       </c>
       <c r="I20">
-        <v>3.256710769592805</v>
+        <v>3.010449524692711</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>17.07502644376795</v>
+        <v>15.68880640419443</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.38734821937404</v>
       </c>
       <c r="M20">
-        <v>12.98750575114192</v>
+        <v>10.83052205948028</v>
       </c>
       <c r="N20">
-        <v>6.879496054562849</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>10.70124331612054</v>
+        <v>13.25077274770081</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.062086722118906</v>
       </c>
       <c r="Q20">
-        <v>17.46654491328853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>10.66681587128665</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>16.04358377761668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.16719937109689</v>
+        <v>16.12692665169737</v>
       </c>
       <c r="C21">
-        <v>9.233964912838918</v>
+        <v>9.448299046808708</v>
       </c>
       <c r="D21">
-        <v>6.392183261758182</v>
+        <v>6.711377597801935</v>
       </c>
       <c r="E21">
-        <v>8.589010549885936</v>
+        <v>8.570394056681183</v>
       </c>
       <c r="F21">
-        <v>22.12762005884736</v>
+        <v>19.31098923483158</v>
       </c>
       <c r="G21">
-        <v>2.100198077001128</v>
+        <v>10.33208982157796</v>
       </c>
       <c r="H21">
-        <v>2.23906679613532</v>
+        <v>2.064471244030566</v>
       </c>
       <c r="I21">
-        <v>3.067745814240997</v>
+        <v>2.876264346946182</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>17.13615676180121</v>
+        <v>15.14499842748089</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.90721066980664</v>
       </c>
       <c r="M21">
-        <v>13.62998215329865</v>
+        <v>10.54750941312462</v>
       </c>
       <c r="N21">
-        <v>7.171569132183282</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.22970109730328</v>
+        <v>13.82641829421394</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.316488967942676</v>
       </c>
       <c r="Q21">
-        <v>17.65148482631193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.20456786045242</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>15.38015897936503</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.7379972017378</v>
+        <v>16.71256008271577</v>
       </c>
       <c r="C22">
-        <v>9.395568077381865</v>
+        <v>9.512054209446436</v>
       </c>
       <c r="D22">
-        <v>6.511769097893814</v>
+        <v>7.005812053889886</v>
       </c>
       <c r="E22">
-        <v>8.713564521550358</v>
+        <v>8.687299489538129</v>
       </c>
       <c r="F22">
-        <v>22.45277679452974</v>
+        <v>18.83019078018889</v>
       </c>
       <c r="G22">
-        <v>2.097343725413918</v>
+        <v>15.07947562370584</v>
       </c>
       <c r="H22">
-        <v>2.094788619897672</v>
+        <v>1.949574249836258</v>
       </c>
       <c r="I22">
-        <v>2.938350016042994</v>
+        <v>2.777840069083219</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>17.15876038954326</v>
+        <v>14.75256417530716</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.58980665017173</v>
       </c>
       <c r="M22">
-        <v>14.03929284694084</v>
+        <v>10.32429146060079</v>
       </c>
       <c r="N22">
-        <v>7.305615389752409</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>11.52727943185392</v>
+        <v>14.19099389725229</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.425853152349705</v>
       </c>
       <c r="Q22">
-        <v>17.7534606338361</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>11.50795651647984</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.89065951061679</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.44203581464748</v>
+        <v>16.40250995977514</v>
       </c>
       <c r="C23">
-        <v>9.295679726157207</v>
+        <v>9.4824117292743</v>
       </c>
       <c r="D23">
-        <v>6.443062003195305</v>
+        <v>6.819759229676213</v>
       </c>
       <c r="E23">
-        <v>8.653817459595462</v>
+        <v>8.626419780078795</v>
       </c>
       <c r="F23">
-        <v>22.30977410753365</v>
+        <v>19.23482412946677</v>
       </c>
       <c r="G23">
-        <v>2.098843243142869</v>
+        <v>11.73879455615229</v>
       </c>
       <c r="H23">
-        <v>2.170579574143834</v>
+        <v>2.008316236512435</v>
       </c>
       <c r="I23">
-        <v>2.995919743709286</v>
+        <v>2.814966622385235</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>17.17046808507282</v>
+        <v>15.03885357445574</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.80753122314682</v>
       </c>
       <c r="M23">
-        <v>13.81747839707447</v>
+        <v>10.51055024361989</v>
       </c>
       <c r="N23">
-        <v>7.232678522779231</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.37020701271467</v>
+        <v>14.00015665614677</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>7.369158876694086</v>
       </c>
       <c r="Q23">
-        <v>17.72212734926665</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.34681086055429</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>15.25882724800559</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.25814909774745</v>
+        <v>15.19961505633379</v>
       </c>
       <c r="C24">
-        <v>8.93329490261107</v>
+        <v>9.289581933369822</v>
       </c>
       <c r="D24">
-        <v>6.184404826368929</v>
+        <v>6.25177883387207</v>
       </c>
       <c r="E24">
-        <v>8.411669159688397</v>
+        <v>8.415830139566815</v>
       </c>
       <c r="F24">
-        <v>21.72878370791783</v>
+        <v>20.06507346075735</v>
       </c>
       <c r="G24">
-        <v>2.104664337322964</v>
+        <v>4.834775772460658</v>
       </c>
       <c r="H24">
-        <v>2.465331244664469</v>
+        <v>2.242551904472724</v>
       </c>
       <c r="I24">
-        <v>3.238617423923174</v>
+        <v>2.988519855799868</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>17.18449221574323</v>
+        <v>15.78693524486315</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.46043077412003</v>
       </c>
       <c r="M24">
-        <v>12.95228460228675</v>
+        <v>10.90664401638849</v>
       </c>
       <c r="N24">
-        <v>6.953124232478748</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>10.75457420116046</v>
+        <v>13.21806735713764</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.136395720433589</v>
       </c>
       <c r="Q24">
-        <v>17.57823502188888</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>10.71996957815066</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>16.15065374771068</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.86700451003975</v>
+        <v>13.85533928125354</v>
       </c>
       <c r="C25">
-        <v>8.528186128627983</v>
+        <v>8.824732466840768</v>
       </c>
       <c r="D25">
-        <v>5.89126731917951</v>
+        <v>5.872690344739484</v>
       </c>
       <c r="E25">
-        <v>8.139245720277833</v>
+        <v>8.218525357914231</v>
       </c>
       <c r="F25">
-        <v>21.12685677891106</v>
+        <v>19.64647832284233</v>
       </c>
       <c r="G25">
-        <v>2.111194224861532</v>
+        <v>5.383739072659695</v>
       </c>
       <c r="H25">
-        <v>2.797110839350859</v>
+        <v>2.53085545353</v>
       </c>
       <c r="I25">
-        <v>3.514451013469868</v>
+        <v>3.213134248389221</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>17.2184554674514</v>
+        <v>15.94037915421294</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.73195116775956</v>
       </c>
       <c r="M25">
-        <v>11.94949738077228</v>
+        <v>10.82083544127248</v>
       </c>
       <c r="N25">
-        <v>6.639589471904782</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.05108458595913</v>
+        <v>12.22251913619191</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>6.839324128364287</v>
       </c>
       <c r="Q25">
-        <v>17.45054451458564</v>
+        <v>10.01365562450371</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>16.14926253156977</v>
       </c>
     </row>
   </sheetData>
